--- a/Road To the Legend.xlsx
+++ b/Road To the Legend.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luohaitian/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E408D1DD-0A2F-4E4C-8C1E-7575253A2B6B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24180" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="1" r:id="rId1"/>
@@ -21,19 +15,19 @@
     <sheet name="Season3" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Totals!$A$1:$W$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PerGame!$A$1:$U$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Advanced!$A$1:$Q$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PerGame!$A$1:$U$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Season1!$A$2:$Z$87</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Season2!$A$2:$Z$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Season3!$A$2:$Z$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Totals!$A$1:$W$5</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>Season</t>
   </si>
@@ -218,6 +212,9 @@
     <t>TOV%</t>
   </si>
   <si>
+    <t>净得分效率</t>
+  </si>
+  <si>
     <t>控球权</t>
   </si>
   <si>
@@ -289,22 +286,19 @@
   <si>
     <t>Championship</t>
   </si>
-  <si>
-    <t>纯组织指数</t>
-    <rPh sb="0" eb="2">
-      <t>chun'zu'zi'zhi'shu</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,7 +310,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -324,7 +317,6 @@
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -332,35 +324,341 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -368,16 +666,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -390,13 +927,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -408,22 +945,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -710,21 +1287,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -878,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <f>COUNTIFS(Season1!C3:C84,"&gt;=10",Season1!F3:F84,"&gt;=10",Season1!G3:G84,"&gt;=10")+COUNTIFS(Season1!C3:C84,"&gt;=10",Season1!F3:F84,"&gt;=10",Season1!H3:H84,"&gt;=10")</f>
+        <f>COUNTIFS(Season1!C3:C84,"&gt;=10",Season1!F3:F84,"&gt;=10",Season1!G3:G84,"&gt;=10")</f>
         <v>0</v>
       </c>
       <c r="V2">
@@ -969,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <f>COUNTIFS(Season1!C99:C126,"&gt;=10",Season1!F99:F126,"&gt;=10",Season1!G99:G126,"&gt;=10")+COUNTIFS(Season1!C99:C126,"&gt;=10",Season1!F99:F126,"&gt;=10",Season1!H99:H126,"&gt;=10")</f>
+        <f>COUNTIFS(Season1!C99:C126,"&gt;=10",Season1!F99:F126,"&gt;=10",Season1!G99:G126,"&gt;=10")</f>
         <v>0</v>
       </c>
       <c r="V3">
@@ -1061,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <f>COUNTIFS(Season2!C3:C84,"&gt;=10",Season2!F3:F84,"&gt;=10",Season2!G3:G84,"&gt;=10")+COUNTIFS(Season1!C3:C84,"&gt;=10",Season1!F3:F84,"&gt;=10",Season1!H3:H84,"&gt;=10")</f>
+        <f>COUNTIFS(Season2!C3:C84,"&gt;=10",Season2!F3:F84,"&gt;=10",Season2!G3:G84,"&gt;=10")</f>
         <v>0</v>
       </c>
       <c r="V4">
@@ -1152,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <f>COUNTIFS(Season2!C99:C126,"&gt;=10",Season2!F99:F126,"&gt;=10",Season2!G99:G126,"&gt;=10")+COUNTIFS(Season2!C99:C126,"&gt;=10",Season2!F99:F126,"&gt;=10",Season2!H99:H126,"&gt;=10")</f>
+        <f>COUNTIFS(Season2!C99:C126,"&gt;=10",Season2!F99:F126,"&gt;=10",Season2!G99:G126,"&gt;=10")</f>
         <v>0</v>
       </c>
       <c r="V5">
@@ -1227,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <f>COUNTIFS(Season3!C3:C84,"&gt;=10",Season3!F3:F84,"&gt;=10",Season3!G3:G84,"&gt;=10")+COUNTIFS(Season3!C3:C84,"&gt;=10",Season3!F3:F84,"&gt;=10",Season3!H3:H84,"&gt;=10")</f>
+        <f>COUNTIFS(Season3!C3:C84,"&gt;=10",Season3!F3:F84,"&gt;=10",Season3!G3:G84,"&gt;=10")</f>
         <v>0</v>
       </c>
       <c r="V6">
@@ -1318,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <f>COUNTIFS(Season3!C99:C126,"&gt;=10",Season3!F99:F126,"&gt;=10",Season3!G99:G126,"&gt;=10")+COUNTIFS(Season3!C99:C126,"&gt;=10",Season3!F99:F126,"&gt;=10",Season3!H99:H126,"&gt;=10")</f>
+        <f>COUNTIFS(Season3!C99:C126,"&gt;=10",Season3!F99:F126,"&gt;=10",Season3!G99:G126,"&gt;=10")</f>
         <v>0</v>
       </c>
       <c r="V7">
@@ -1330,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="2:21">
       <c r="B41" t="s">
         <v>1</v>
       </c>
@@ -1376,10 +1953,13 @@
       <c r="P41" t="s">
         <v>15</v>
       </c>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -1388,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:P42" si="0">SUM(C2,C4,C6,C8,C10,C12,C14,C16,C18,C20,C22,C24,C26,C28,C30,C32,C34,C36,C38,C40)</f>
+        <f t="shared" ref="C42:U42" si="0">SUM(C2,C4,C6,C8,C10,C12,C14,C16,C18,C20,C22,C24,C26,C28,C30,C32,C34,C36,C38,C40)</f>
         <v>0</v>
       </c>
       <c r="D42">
@@ -1444,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -1453,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:P43" si="1">SUM(C1,C3,C5,C7,C9,C11,C13,C15,C17,C19,C21,C23,C25,C27,C29,C31,C33,C35,C37,C39)</f>
+        <f t="shared" ref="C43:U43" si="1">SUM(C1,C3,C5,C7,C9,C11,C13,C15,C17,C19,C21,C23,C25,C27,C29,C31,C33,C35,C37,C39)</f>
         <v>0</v>
       </c>
       <c r="D43">
@@ -1509,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -1574,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -1639,12 +2219,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -1709,113 +2289,104 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C54">
-        <f>COUNT(Season1!91:91)+COUNT(Season2!91:91)+COUNT(Season3!91:91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C55">
-        <f>COUNT(Season1!92:92)+COUNT(Season2!92:92)+COUNT(Season3!92:92)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C56">
-        <f>COUNT(Season1!93:93)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <autoFilter ref="A1:W5">
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A3" location="Season1!A97" display="Playoff1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A2" location="Season1!A1" display="Regular1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" location="Season2!A1" display="Regular2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" location="Season2!A97" display="Playoff2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A6" location="Season3!A1" display="Regular3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A7" location="Season3!A96" display="Playoff3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A3" location="Season1!A97" display="Playoff1"/>
+    <hyperlink ref="A2" location="Season1!A1" display="Regular1"/>
+    <hyperlink ref="A4" location="Season2!A1" display="Regular2"/>
+    <hyperlink ref="A5" location="Season2!A97" display="Playoff2"/>
+    <hyperlink ref="A6" location="Season3!A1" display="Regular3"/>
+    <hyperlink ref="A7" location="Season3!A96" display="Playoff3"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
@@ -1890,79 +2461,79 @@
         <v>23</v>
       </c>
       <c r="B2" s="7" t="e">
-        <f>Totals!B2/Totals!$S2</f>
+        <f>Season1!B86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C2" s="7" t="e">
-        <f>Totals!C2/Totals!$S2</f>
+        <f>Season1!C86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D2" s="7" t="e">
-        <f>Totals!D2/Totals!$S2</f>
+        <f>Season1!D86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E2" s="7" t="e">
-        <f>Totals!E2/Totals!$S2</f>
+        <f>Season1!E86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F2" s="7" t="e">
-        <f>Totals!F2/Totals!$S2</f>
+        <f>Season1!F86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G2" s="7" t="e">
-        <f>Totals!G2/Totals!$S2</f>
+        <f>Season1!G86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H2" s="7" t="e">
-        <f>Totals!H2/Totals!$S2</f>
+        <f>Season1!H86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I2" s="7" t="e">
-        <f>Totals!I2/Totals!$S2</f>
+        <f>Season1!I86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J2" s="7" t="e">
-        <f>Totals!J2/Totals!$S2</f>
+        <f>Season1!J86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K2" s="7" t="e">
-        <f>Totals!K2/Totals!$S2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L2" t="e">
-        <f>J2/K2</f>
+        <f>Season1!K86</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L2" s="7" t="e">
+        <f>J2/K2*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M2" s="7" t="e">
-        <f>Totals!L2/Totals!$S2</f>
+        <f>Season1!L86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N2" s="7" t="e">
-        <f>Totals!M2/Totals!$S2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O2" t="e">
-        <f>M2/N2</f>
+        <f>Season1!M86</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O2" s="7" t="e">
+        <f>M2/N2*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P2" s="7" t="e">
-        <f>Totals!N2/Totals!$S2</f>
+        <f>Season1!N86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q2" s="7" t="e">
-        <f>Totals!O2/Totals!$S2</f>
+        <f>Season1!O86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R2" s="7" t="e">
-        <f>P2/Q2</f>
+        <f>P2/Q2*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S2" s="7" t="e">
-        <f>Totals!S2/Totals!$S2</f>
+        <f>Season1!P86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T2" s="7" t="e">
-        <f>Totals!T2/Totals!$S2</f>
+        <f>Season1!Q86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U2">
@@ -1974,80 +2545,80 @@
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7" t="e">
-        <f>Totals!B3/Totals!$S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C3" s="7" t="e">
-        <f>Totals!C3/Totals!$S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D3" s="7" t="e">
-        <f>Totals!D3/Totals!$S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E3" s="7" t="e">
-        <f>Totals!E3/Totals!$S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F3" s="7" t="e">
-        <f>Totals!F3/Totals!$S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G3" s="7" t="e">
-        <f>Totals!G3/Totals!$S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H3" s="7" t="e">
-        <f>Totals!H3/Totals!$S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="7" t="e">
-        <f>Totals!I3/Totals!$S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3" s="7" t="e">
-        <f>Totals!J3/Totals!$S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="7" t="e">
-        <f>Totals!K3/Totals!$S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" t="e">
-        <f t="shared" ref="L3:L7" si="0">J3/K3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" s="7" t="e">
-        <f>Totals!L3/Totals!$S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3" s="7" t="e">
-        <f>Totals!M3/Totals!$S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O3" t="e">
-        <f t="shared" ref="O3:O7" si="1">M3/N3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P3" s="7" t="e">
-        <f>Totals!N3/Totals!$S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q3" s="7" t="e">
-        <f>Totals!O3/Totals!$S3</f>
+      <c r="B3" t="e">
+        <f>Season1!B128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C3" t="e">
+        <f>Season1!C128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D3" t="e">
+        <f>Season1!D128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E3" t="e">
+        <f>Season1!E128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F3" t="e">
+        <f>Season1!F128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G3" t="e">
+        <f>Season1!G128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H3" t="e">
+        <f>Season1!H128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3" t="e">
+        <f>Season1!I128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" t="e">
+        <f>Season1!J128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" t="e">
+        <f>Season1!K128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="7" t="e">
+        <f>J3/K3*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" t="e">
+        <f>Season1!L128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N3" t="e">
+        <f>Season1!M128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3" s="7" t="e">
+        <f>M3/N3*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P3" t="e">
+        <f>Season1!N128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q3" t="e">
+        <f>Season1!O128</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R3" s="7" t="e">
-        <f t="shared" ref="R3:R7" si="2">P3/Q3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S3" s="7" t="e">
-        <f>Totals!S3/Totals!$S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T3" s="7" t="e">
-        <f>Totals!T3/Totals!$S3</f>
+        <f>P3/Q3*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S3" t="e">
+        <f>Season1!P128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T3" t="e">
+        <f>Season1!Q128</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U3">
@@ -2060,79 +2631,79 @@
         <v>25</v>
       </c>
       <c r="B4" s="7" t="e">
-        <f>Totals!B4/Totals!$S4</f>
+        <f>Season2!B86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C4" s="7" t="e">
-        <f>Totals!C4/Totals!$S4</f>
+        <f>Season2!C86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D4" s="7" t="e">
-        <f>Totals!D4/Totals!$S4</f>
+        <f>Season2!D86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E4" s="7" t="e">
-        <f>Totals!E4/Totals!$S4</f>
+        <f>Season2!E86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F4" s="7" t="e">
-        <f>Totals!F4/Totals!$S4</f>
+        <f>Season2!F86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G4" s="7" t="e">
-        <f>Totals!G4/Totals!$S4</f>
+        <f>Season2!G86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H4" s="7" t="e">
-        <f>Totals!H4/Totals!$S4</f>
+        <f>Season2!H86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I4" s="7" t="e">
-        <f>Totals!I4/Totals!$S4</f>
+        <f>Season2!I86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J4" s="7" t="e">
-        <f>Totals!J4/Totals!$S4</f>
+        <f>Season2!J86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K4" s="7" t="e">
-        <f>Totals!K4/Totals!$S4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
+        <f>Season2!K86</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="7" t="e">
+        <f>J4/K4*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M4" s="7" t="e">
-        <f>Totals!L4/Totals!$S4</f>
+        <f>Season2!L86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N4" s="7" t="e">
-        <f>Totals!M4/Totals!$S4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O4" t="e">
-        <f t="shared" si="1"/>
+        <f>Season2!M86</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4" s="7" t="e">
+        <f>M4/N4*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P4" s="7" t="e">
-        <f>Totals!N4/Totals!$S4</f>
+        <f>Season2!N86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q4" s="7" t="e">
-        <f>Totals!O4/Totals!$S4</f>
+        <f>Season2!O86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R4" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f>P4/Q4*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S4" s="7" t="e">
-        <f>Totals!S4/Totals!$S4</f>
+        <f>Season2!P86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T4" s="7" t="e">
-        <f>Totals!T4/Totals!$S4</f>
+        <f>Season2!Q86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U4">
@@ -2144,80 +2715,80 @@
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="7" t="e">
-        <f>Totals!B5/Totals!$S5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C5" s="7" t="e">
-        <f>Totals!C5/Totals!$S5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D5" s="7" t="e">
-        <f>Totals!D5/Totals!$S5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="7" t="e">
-        <f>Totals!E5/Totals!$S5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="7" t="e">
-        <f>Totals!F5/Totals!$S5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="7" t="e">
-        <f>Totals!G5/Totals!$S5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="7" t="e">
-        <f>Totals!H5/Totals!$S5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="7" t="e">
-        <f>Totals!I5/Totals!$S5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="7" t="e">
-        <f>Totals!J5/Totals!$S5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="7" t="e">
-        <f>Totals!K5/Totals!$S5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="7" t="e">
-        <f>Totals!L5/Totals!$S5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="7" t="e">
-        <f>Totals!M5/Totals!$S5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P5" s="7" t="e">
-        <f>Totals!N5/Totals!$S5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q5" s="7" t="e">
-        <f>Totals!O5/Totals!$S5</f>
+      <c r="B5" t="e">
+        <f>Season2!B128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C5" t="e">
+        <f>Season2!C128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D5" t="e">
+        <f>Season2!D128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" t="e">
+        <f>Season2!E128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" t="e">
+        <f>Season2!F128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" t="e">
+        <f>Season2!G128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" t="e">
+        <f>Season2!H128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" t="e">
+        <f>Season2!I128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" t="e">
+        <f>Season2!J128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5" t="e">
+        <f>Season2!K128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="7" t="e">
+        <f>J5/K5*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" t="e">
+        <f>Season2!L128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" t="e">
+        <f>Season2!M128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" s="7" t="e">
+        <f>M5/N5*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P5" t="e">
+        <f>Season2!N128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" t="e">
+        <f>Season2!O128</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R5" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="7" t="e">
-        <f>Totals!S5/Totals!$S5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T5" s="7" t="e">
-        <f>Totals!T5/Totals!$S5</f>
+        <f>P5/Q5*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S5" t="e">
+        <f>Season2!P128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T5" t="e">
+        <f>Season2!Q128</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U5">
@@ -2229,80 +2800,80 @@
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="7" t="e">
-        <f>Totals!B6/Totals!$S6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C6" s="7" t="e">
-        <f>Totals!C6/Totals!$S6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" s="7" t="e">
-        <f>Totals!D6/Totals!$S6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="7" t="e">
-        <f>Totals!E6/Totals!$S6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="7" t="e">
-        <f>Totals!F6/Totals!$S6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="7" t="e">
-        <f>Totals!G6/Totals!$S6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H6" s="7" t="e">
-        <f>Totals!H6/Totals!$S6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="7" t="e">
-        <f>Totals!I6/Totals!$S6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="7" t="e">
-        <f>Totals!J6/Totals!$S6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="7" t="e">
-        <f>Totals!K6/Totals!$S6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="7" t="e">
-        <f>Totals!L6/Totals!$S6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="7" t="e">
-        <f>Totals!M6/Totals!$S6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P6" s="7" t="e">
-        <f>Totals!N6/Totals!$S6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q6" s="7" t="e">
-        <f>Totals!O6/Totals!$S6</f>
+      <c r="B6" t="e">
+        <f>Season3!B86</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" t="e">
+        <f>Season3!C86</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" t="e">
+        <f>Season3!D86</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" t="e">
+        <f>Season3!E86</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" t="e">
+        <f>Season3!F86</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" t="e">
+        <f>Season3!G86</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" t="e">
+        <f>Season3!H86</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" t="e">
+        <f>Season3!I86</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" t="e">
+        <f>Season3!J86</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" t="e">
+        <f>Season3!K86</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="7" t="e">
+        <f>J6/K6*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" t="e">
+        <f>Season3!L86</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" t="e">
+        <f>Season3!M86</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O6" s="7" t="e">
+        <f>M6/N6*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" t="e">
+        <f>Season3!N86</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q6" t="e">
+        <f>Season3!O86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R6" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="7" t="e">
-        <f>Totals!S6/Totals!$S6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T6" s="7" t="e">
-        <f>Totals!T6/Totals!$S6</f>
+        <f>P6/Q6*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S6" t="e">
+        <f>Season3!P86</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T6" t="e">
+        <f>Season3!Q86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U6">
@@ -2314,80 +2885,80 @@
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="7" t="e">
-        <f>Totals!B7/Totals!$S7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C7" s="7" t="e">
-        <f>Totals!C7/Totals!$S7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="7" t="e">
-        <f>Totals!D7/Totals!$S7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="7" t="e">
-        <f>Totals!E7/Totals!$S7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="7" t="e">
-        <f>Totals!F7/Totals!$S7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="7" t="e">
-        <f>Totals!G7/Totals!$S7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" s="7" t="e">
-        <f>Totals!H7/Totals!$S7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="7" t="e">
-        <f>Totals!I7/Totals!$S7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="7" t="e">
-        <f>Totals!J7/Totals!$S7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="7" t="e">
-        <f>Totals!K7/Totals!$S7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="7" t="e">
-        <f>Totals!L7/Totals!$S7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="7" t="e">
-        <f>Totals!M7/Totals!$S7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P7" s="7" t="e">
-        <f>Totals!N7/Totals!$S7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q7" s="7" t="e">
-        <f>Totals!O7/Totals!$S7</f>
+      <c r="B7" t="e">
+        <f>Season3!B128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C7" t="e">
+        <f>Season3!C128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" t="e">
+        <f>Season3!D128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" t="e">
+        <f>Season3!E128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" t="e">
+        <f>Season3!F128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" t="e">
+        <f>Season3!G128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" t="e">
+        <f>Season3!H128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" t="e">
+        <f>Season3!I128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" t="e">
+        <f>Season3!J128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" t="e">
+        <f>Season3!K128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="7" t="e">
+        <f>J7/K7*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" t="e">
+        <f>Season3!L128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" t="e">
+        <f>Season3!M128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O7" s="7" t="e">
+        <f>M7/N7*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P7" t="e">
+        <f>Season3!N128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q7" t="e">
+        <f>Season3!O128</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R7" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S7" s="7" t="e">
-        <f>Totals!S7/Totals!$S7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T7" s="7" t="e">
-        <f>Totals!T7/Totals!$S7</f>
+        <f>P7/Q7*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S7" t="e">
+        <f>Season3!P128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T7" t="e">
+        <f>Season3!Q128</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U7">
@@ -2395,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="2:20">
       <c r="B41" t="s">
         <v>1</v>
       </c>
@@ -2617,37 +3188,40 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <autoFilter ref="A1:U5">
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A3" location="Season1!A97" display="Playoff1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A2" location="Season1!A1" display="Regular1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A4" location="Season2!A1" display="Regular2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A5" location="Season2!A97" display="Playoff2" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="A6" location="Season3!A1" display="Regular3" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="A7" location="Season3!A96" display="Playoff3" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A3" location="Season1!A97" display="Playoff1"/>
+    <hyperlink ref="A2" location="Season1!A1" display="Regular1"/>
+    <hyperlink ref="A4" location="Season2!A1" display="Regular2"/>
+    <hyperlink ref="A5" location="Season2!A97" display="Playoff2"/>
+    <hyperlink ref="A6" location="Season3!A1" display="Regular3"/>
+    <hyperlink ref="A7" location="Season3!A96" display="Playoff3"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="13" max="13" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2672,29 +3246,29 @@
       <c r="H1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>85</v>
+      <c r="I1" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>22</v>
@@ -2744,7 +3318,7 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -2761,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:17">
       <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
@@ -2778,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:17">
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
@@ -2795,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:17">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -2812,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:17">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -2830,46 +3404,49 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q5" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <autoFilter ref="A1:Q5">
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A3" location="Season1!A97" display="Playoff1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A2" location="Season1!A1" display="Regular1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="A4" location="Season2!A1" display="Regular2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="A5" location="Season2!A97" display="Playoff2" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="A6" location="Season3!A1" display="Regular3" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="A7" location="Season3!A96" display="Playoff3" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="A3" location="Season1!A97" display="Playoff1"/>
+    <hyperlink ref="A2" location="Season1!A1" display="Regular1"/>
+    <hyperlink ref="A4" location="Season2!A1" display="Regular2"/>
+    <hyperlink ref="A5" location="Season2!A97" display="Playoff2"/>
+    <hyperlink ref="A6" location="Season3!A1" display="Regular3"/>
+    <hyperlink ref="A7" location="Season3!A96" display="Playoff3"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C91" sqref="C91:E91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.7083333333333" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
     <col min="21" max="21" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2920,10 +3497,10 @@
         <v>16</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s">
         <v>21</v>
@@ -2932,19 +3509,19 @@
         <v>22</v>
       </c>
       <c r="W2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2961,7 +3538,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2978,7 +3555,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2995,7 +3572,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3012,7 +3589,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3029,7 +3606,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3046,7 +3623,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3063,7 +3640,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3080,7 +3657,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3097,7 +3674,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3114,7 +3691,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3131,7 +3708,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3148,7 +3725,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3165,7 +3742,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4270,7 +4847,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:24">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4287,7 +4864,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:24">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4304,7 +4881,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:24">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4321,7 +4898,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:24">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4338,9 +4915,9 @@
         <v>L</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:24">
       <c r="A85" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B85" s="1">
         <f>SUM(B3:B84)</f>
@@ -4425,7 +5002,7 @@
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B86" s="2" t="e">
         <f>AVERAGE(B3:B84)</f>
@@ -4506,21 +5083,21 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" customFormat="1" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:18">
       <c r="A89" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B89" s="1">
         <f>MAX(B3:B84)</f>
@@ -4585,47 +5162,47 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B98" t="s">
         <v>1</v>
@@ -4676,10 +5253,10 @@
         <v>16</v>
       </c>
       <c r="R98" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S98" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T98" t="s">
         <v>21</v>
@@ -4688,19 +5265,23 @@
         <v>22</v>
       </c>
       <c r="W98" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X98" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y98" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" ht="13.5" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:21">
       <c r="A99">
         <v>1</v>
       </c>
+      <c r="B99">
+        <f>SUM(B89:B98)</f>
+        <v>0</v>
+      </c>
       <c r="C99">
         <f>J99*2+L99+N99</f>
         <v>0</v>
@@ -4714,16 +5295,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:21">
       <c r="A100">
         <v>2</v>
       </c>
+      <c r="B100">
+        <f>SUM(B90:B99)</f>
+        <v>0</v>
+      </c>
       <c r="C100">
-        <f t="shared" ref="C100:C126" si="12">J100*2+L100+N100</f>
+        <f t="shared" ref="C100:C127" si="12">J100*2+L100+N100</f>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" ref="E100:E126" si="13">F100-D100</f>
+        <f t="shared" ref="E100:E127" si="13">F100-D100</f>
         <v>0</v>
       </c>
       <c r="U100">
@@ -4731,10 +5316,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:21">
       <c r="A101">
         <v>3</v>
       </c>
+      <c r="B101">
+        <f>SUM(B90:B100)</f>
+        <v>0</v>
+      </c>
       <c r="C101">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4748,10 +5337,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:21">
       <c r="A102">
         <v>4</v>
       </c>
+      <c r="B102">
+        <f>SUM(B91:B101)</f>
+        <v>0</v>
+      </c>
       <c r="C102">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4765,10 +5358,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:21">
       <c r="A103">
         <v>5</v>
       </c>
+      <c r="B103">
+        <f>SUM(B92:B102)</f>
+        <v>0</v>
+      </c>
       <c r="C103">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4782,10 +5379,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:21">
       <c r="A104">
         <v>6</v>
       </c>
+      <c r="B104">
+        <f>SUM(B93:B103)</f>
+        <v>0</v>
+      </c>
       <c r="C104">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4799,10 +5400,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:21">
       <c r="A105">
         <v>7</v>
       </c>
+      <c r="B105">
+        <f>SUM(B94:B104)</f>
+        <v>0</v>
+      </c>
       <c r="C105">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4816,10 +5421,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:21">
       <c r="A106">
         <v>8</v>
       </c>
+      <c r="B106">
+        <f>SUM(B95:B105)</f>
+        <v>0</v>
+      </c>
       <c r="C106">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4833,10 +5442,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:21">
       <c r="A107">
         <v>9</v>
       </c>
+      <c r="B107">
+        <f>SUM(B97:B106)</f>
+        <v>0</v>
+      </c>
       <c r="C107">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4850,10 +5463,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:21">
       <c r="A108">
         <v>10</v>
       </c>
+      <c r="B108">
+        <f>SUM(B98:B107)</f>
+        <v>0</v>
+      </c>
       <c r="C108">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4867,10 +5484,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:21">
       <c r="A109">
         <v>11</v>
       </c>
+      <c r="B109">
+        <f>SUM(B99:B108)</f>
+        <v>0</v>
+      </c>
       <c r="C109">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4884,10 +5505,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:21">
       <c r="A110">
         <v>12</v>
       </c>
+      <c r="B110">
+        <f>SUM(B100:B109)</f>
+        <v>0</v>
+      </c>
       <c r="C110">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4901,10 +5526,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:21">
       <c r="A111">
         <v>13</v>
       </c>
+      <c r="B111">
+        <f>SUM(B101:B110)</f>
+        <v>0</v>
+      </c>
       <c r="C111">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4918,10 +5547,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:21">
       <c r="A112">
         <v>14</v>
       </c>
+      <c r="B112">
+        <f>SUM(B102:B111)</f>
+        <v>0</v>
+      </c>
       <c r="C112">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4935,10 +5568,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:21">
       <c r="A113">
         <v>15</v>
       </c>
+      <c r="B113">
+        <f>SUM(B103:B112)</f>
+        <v>0</v>
+      </c>
       <c r="C113">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4952,10 +5589,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:21">
       <c r="A114">
         <v>16</v>
       </c>
+      <c r="B114">
+        <f>SUM(B104:B113)</f>
+        <v>0</v>
+      </c>
       <c r="C114">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4969,10 +5610,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:21">
       <c r="A115">
         <v>17</v>
       </c>
+      <c r="B115">
+        <f>SUM(B105:B114)</f>
+        <v>0</v>
+      </c>
       <c r="C115">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4986,10 +5631,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:21">
       <c r="A116">
         <v>18</v>
       </c>
+      <c r="B116">
+        <f>SUM(B106:B115)</f>
+        <v>0</v>
+      </c>
       <c r="C116">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5003,10 +5652,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
+    <row r="117" spans="1:21">
       <c r="A117">
         <v>19</v>
       </c>
+      <c r="B117">
+        <f>SUM(B107:B116)</f>
+        <v>0</v>
+      </c>
       <c r="C117">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5020,10 +5673,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:21">
       <c r="A118">
         <v>20</v>
       </c>
+      <c r="B118">
+        <f>SUM(B108:B117)</f>
+        <v>0</v>
+      </c>
       <c r="C118">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5037,10 +5694,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:21">
       <c r="A119">
         <v>21</v>
       </c>
+      <c r="B119">
+        <f>SUM(B109:B118)</f>
+        <v>0</v>
+      </c>
       <c r="C119">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5054,10 +5715,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:21">
       <c r="A120">
         <v>22</v>
       </c>
+      <c r="B120">
+        <f>SUM(B110:B119)</f>
+        <v>0</v>
+      </c>
       <c r="C120">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5067,14 +5732,18 @@
         <v>0</v>
       </c>
       <c r="U120">
-        <f t="shared" ref="U120:U127" si="16">$U$84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25">
+        <f t="shared" ref="U120:U128" si="16">$U$84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21">
       <c r="A121">
         <v>23</v>
       </c>
+      <c r="B121">
+        <f>SUM(B111:B120)</f>
+        <v>0</v>
+      </c>
       <c r="C121">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5088,10 +5757,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:21">
       <c r="A122">
         <v>24</v>
       </c>
+      <c r="B122">
+        <f>SUM(B112:B121)</f>
+        <v>0</v>
+      </c>
       <c r="C122">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5105,10 +5778,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:21">
       <c r="A123">
         <v>25</v>
       </c>
+      <c r="B123">
+        <f>SUM(B113:B122)</f>
+        <v>0</v>
+      </c>
       <c r="C123">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5122,10 +5799,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:21">
       <c r="A124">
         <v>26</v>
       </c>
+      <c r="B124">
+        <f>SUM(B114:B123)</f>
+        <v>0</v>
+      </c>
       <c r="C124">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5139,10 +5820,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:21">
       <c r="A125">
         <v>27</v>
       </c>
+      <c r="B125">
+        <f>SUM(B115:B124)</f>
+        <v>0</v>
+      </c>
       <c r="C125">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5156,10 +5841,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:21">
       <c r="A126">
         <v>28</v>
       </c>
+      <c r="B126">
+        <f>SUM(B99:B125)</f>
+        <v>0</v>
+      </c>
       <c r="C126">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5175,7 +5864,7 @@
     </row>
     <row r="127" spans="1:25">
       <c r="A127" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B127">
         <f>SUM(B99:B126)</f>
@@ -5264,7 +5953,7 @@
     </row>
     <row r="128" spans="1:25">
       <c r="A128" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B128" t="e">
         <f>B127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
@@ -5347,7 +6036,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" customFormat="1" spans="1:18">
       <c r="A129" s="1" t="s">
         <v>32</v>
       </c>
@@ -5414,47 +6103,50 @@
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
       <c r="A131" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Z87" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <autoFilter ref="A2:Z87">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.7083333333333" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -5505,10 +6197,10 @@
         <v>16</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s">
         <v>21</v>
@@ -5517,19 +6209,19 @@
         <v>22</v>
       </c>
       <c r="W2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5546,7 +6238,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5563,7 +6255,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5580,7 +6272,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5597,7 +6289,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5614,7 +6306,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5631,7 +6323,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5648,7 +6340,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5665,7 +6357,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5682,7 +6374,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5699,7 +6391,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5716,7 +6408,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5733,7 +6425,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5750,7 +6442,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6855,7 +7547,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:24">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6872,7 +7564,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:24">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6889,7 +7581,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:24">
       <c r="A83">
         <v>81</v>
       </c>
@@ -6906,7 +7598,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:24">
       <c r="A84">
         <v>82</v>
       </c>
@@ -6923,9 +7615,9 @@
         <v>L</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:24">
       <c r="A85" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" ref="B85:R85" si="7">SUM(B3:B84)</f>
@@ -7006,7 +7698,7 @@
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B86" s="2" t="e">
         <f t="shared" ref="B86:R86" si="8">AVERAGE(B3:B84)</f>
@@ -7087,21 +7779,21 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:18">
       <c r="A89" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" ref="B89:P89" si="9">MAX(B3:B84)</f>
@@ -7166,42 +7858,42 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B92" s="1"/>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B98" t="s">
         <v>1</v>
@@ -7252,10 +7944,10 @@
         <v>16</v>
       </c>
       <c r="R98" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S98" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T98" t="s">
         <v>21</v>
@@ -7264,19 +7956,23 @@
         <v>22</v>
       </c>
       <c r="W98" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X98" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y98" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" ht="13.5" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:21">
       <c r="A99">
         <v>1</v>
       </c>
+      <c r="B99">
+        <f>SUM(B89:B98)</f>
+        <v>0</v>
+      </c>
       <c r="C99">
         <f t="shared" ref="C99:C126" si="10">J99*2+L99+N99</f>
         <v>0</v>
@@ -7290,10 +7986,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:21">
       <c r="A100">
         <v>2</v>
       </c>
+      <c r="B100">
+        <f>SUM(B89:B99)</f>
+        <v>0</v>
+      </c>
       <c r="C100">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7307,10 +8007,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:21">
       <c r="A101">
         <v>3</v>
       </c>
+      <c r="B101">
+        <f t="shared" ref="B99:B125" si="13">SUM(B91:B100)</f>
+        <v>0</v>
+      </c>
       <c r="C101">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7324,10 +8028,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:21">
       <c r="A102">
         <v>4</v>
       </c>
+      <c r="B102">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C102">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7341,10 +8049,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:21">
       <c r="A103">
         <v>5</v>
       </c>
+      <c r="B103">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C103">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7358,10 +8070,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:21">
       <c r="A104">
         <v>6</v>
       </c>
+      <c r="B104">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C104">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7375,10 +8091,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:21">
       <c r="A105">
         <v>7</v>
       </c>
+      <c r="B105">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C105">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7392,10 +8112,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:21">
       <c r="A106">
         <v>8</v>
       </c>
+      <c r="B106">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C106">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7409,10 +8133,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:21">
       <c r="A107">
         <v>9</v>
       </c>
+      <c r="B107">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C107">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7426,10 +8154,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:21">
       <c r="A108">
         <v>10</v>
       </c>
+      <c r="B108">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C108">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7443,10 +8175,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:21">
       <c r="A109">
         <v>11</v>
       </c>
+      <c r="B109">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C109">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7460,10 +8196,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:21">
       <c r="A110">
         <v>12</v>
       </c>
+      <c r="B110">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C110">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7477,10 +8217,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:21">
       <c r="A111">
         <v>13</v>
       </c>
+      <c r="B111">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C111">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7494,10 +8238,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:21">
       <c r="A112">
         <v>14</v>
       </c>
+      <c r="B112">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C112">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7511,10 +8259,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:21">
       <c r="A113">
         <v>15</v>
       </c>
+      <c r="B113">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C113">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7528,10 +8280,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:21">
       <c r="A114">
         <v>16</v>
       </c>
+      <c r="B114">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C114">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7545,10 +8301,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:21">
       <c r="A115">
         <v>17</v>
       </c>
+      <c r="B115">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C115">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7562,10 +8322,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:21">
       <c r="A116">
         <v>18</v>
       </c>
+      <c r="B116">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C116">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7579,10 +8343,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
+    <row r="117" spans="1:21">
       <c r="A117">
         <v>19</v>
       </c>
+      <c r="B117">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C117">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7596,10 +8364,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:21">
       <c r="A118">
         <v>20</v>
       </c>
+      <c r="B118">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C118">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7613,10 +8385,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:21">
       <c r="A119">
         <v>21</v>
       </c>
+      <c r="B119">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C119">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7630,10 +8406,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:21">
       <c r="A120">
         <v>22</v>
       </c>
+      <c r="B120">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C120">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7647,10 +8427,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:21">
       <c r="A121">
         <v>23</v>
       </c>
+      <c r="B121">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C121">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7664,10 +8448,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:21">
       <c r="A122">
         <v>24</v>
       </c>
+      <c r="B122">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C122">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7681,10 +8469,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:21">
       <c r="A123">
         <v>25</v>
       </c>
+      <c r="B123">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C123">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7698,10 +8490,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:21">
       <c r="A124">
         <v>26</v>
       </c>
+      <c r="B124">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C124">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7715,10 +8511,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:21">
       <c r="A125">
         <v>27</v>
       </c>
+      <c r="B125">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="C125">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7732,10 +8532,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:21">
       <c r="A126">
         <v>28</v>
       </c>
+      <c r="B126">
+        <f>SUM(B99:B125)</f>
+        <v>0</v>
+      </c>
       <c r="C126">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7751,82 +8555,82 @@
     </row>
     <row r="127" spans="1:25">
       <c r="A127" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B127">
-        <f t="shared" ref="B127:T127" si="13">SUM(B99:B126)</f>
+        <f t="shared" ref="B127:T127" si="14">SUM(B99:B126)</f>
         <v>0</v>
       </c>
       <c r="C127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U127">
@@ -7840,82 +8644,82 @@
     </row>
     <row r="128" spans="1:25">
       <c r="A128" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B128" t="e">
-        <f t="shared" ref="B128:T128" si="14">B127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
+        <f>B127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C128" t="e">
-        <f t="shared" si="14"/>
+        <f>C127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D128" t="e">
-        <f t="shared" si="14"/>
+        <f>D127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E128" t="e">
-        <f t="shared" si="14"/>
+        <f>E127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F128" t="e">
-        <f t="shared" si="14"/>
+        <f>F127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G128" t="e">
-        <f t="shared" si="14"/>
+        <f>G127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H128" t="e">
-        <f t="shared" si="14"/>
+        <f>H127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I128" t="e">
-        <f t="shared" si="14"/>
+        <f>I127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J128" t="e">
-        <f t="shared" si="14"/>
+        <f>J127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K128" t="e">
-        <f t="shared" si="14"/>
+        <f>K127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L128" t="e">
-        <f t="shared" si="14"/>
+        <f>L127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M128" t="e">
-        <f t="shared" si="14"/>
+        <f>M127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N128" t="e">
-        <f t="shared" si="14"/>
+        <f>N127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O128" t="e">
-        <f t="shared" si="14"/>
+        <f>O127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P128" t="e">
-        <f t="shared" si="14"/>
+        <f>P127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q128" t="e">
-        <f t="shared" si="14"/>
+        <f>Q127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R128" t="e">
-        <f t="shared" si="14"/>
+        <f>R127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S128" t="e">
-        <f t="shared" si="14"/>
+        <f>S127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T128" t="e">
-        <f t="shared" si="14"/>
+        <f>T127/COUNTIFS($B$99:$B$126,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y128" t="e">
@@ -7923,7 +8727,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" customFormat="1" spans="1:18">
       <c r="A129" s="1" t="s">
         <v>32</v>
       </c>
@@ -7990,47 +8794,50 @@
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" customFormat="1" spans="1:1">
       <c r="A130" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="131" customFormat="1" spans="1:1">
       <c r="A131" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Z89" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <autoFilter ref="A2:Z89">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B99" sqref="B99:B126"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.7083333333333" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -8081,10 +8888,10 @@
         <v>16</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s">
         <v>21</v>
@@ -8093,19 +8900,19 @@
         <v>22</v>
       </c>
       <c r="W2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8122,7 +8929,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8139,7 +8946,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8156,7 +8963,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8173,7 +8980,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8190,7 +8997,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8207,7 +9014,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8224,7 +9031,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8241,7 +9048,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8258,7 +9065,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8275,7 +9082,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8292,7 +9099,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8309,7 +9116,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8326,7 +9133,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>14</v>
       </c>
@@ -9431,7 +10238,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:24">
       <c r="A81">
         <v>79</v>
       </c>
@@ -9448,7 +10255,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:24">
       <c r="A82">
         <v>80</v>
       </c>
@@ -9465,7 +10272,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:24">
       <c r="A83">
         <v>81</v>
       </c>
@@ -9482,7 +10289,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:24">
       <c r="A84">
         <v>82</v>
       </c>
@@ -9499,9 +10306,9 @@
         <v>L</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:24">
       <c r="A85" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" ref="B85:R85" si="6">SUM(B3:B84)</f>
@@ -9582,7 +10389,7 @@
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B86" s="2" t="e">
         <f t="shared" ref="B86:R86" si="7">AVERAGE(B3:B84)</f>
@@ -9666,15 +10473,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B87" s="1"/>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:18">
       <c r="A89" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" ref="B89:P89" si="8">MAX(B3:B84)</f>
@@ -9739,45 +10546,45 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:1">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B98" t="s">
         <v>1</v>
@@ -9828,10 +10635,10 @@
         <v>16</v>
       </c>
       <c r="R98" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S98" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T98" t="s">
         <v>21</v>
@@ -9840,19 +10647,23 @@
         <v>22</v>
       </c>
       <c r="W98" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X98" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y98" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" ht="13.5" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:21">
       <c r="A99">
         <v>1</v>
       </c>
+      <c r="B99">
+        <f>SUM(B89:B98)</f>
+        <v>0</v>
+      </c>
       <c r="C99">
         <f t="shared" ref="C99:C126" si="9">J99*2+L99+N99</f>
         <v>0</v>
@@ -9866,10 +10677,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:21">
       <c r="A100">
         <v>2</v>
       </c>
+      <c r="B100">
+        <f>SUM(B89:B99)</f>
+        <v>0</v>
+      </c>
       <c r="C100">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -9883,10 +10698,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:21">
       <c r="A101">
         <v>3</v>
       </c>
+      <c r="B101">
+        <f>SUM(B90:B100)</f>
+        <v>0</v>
+      </c>
       <c r="C101">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -9900,10 +10719,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:21">
       <c r="A102">
         <v>4</v>
       </c>
+      <c r="B102">
+        <f>SUM(B91:B101)</f>
+        <v>0</v>
+      </c>
       <c r="C102">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -9917,10 +10740,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:21">
       <c r="A103">
         <v>5</v>
       </c>
+      <c r="B103">
+        <f>SUM(B92:B102)</f>
+        <v>0</v>
+      </c>
       <c r="C103">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -9934,10 +10761,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:21">
       <c r="A104">
         <v>6</v>
       </c>
+      <c r="B104">
+        <f t="shared" ref="B99:B125" si="12">SUM(B94:B103)</f>
+        <v>0</v>
+      </c>
       <c r="C104">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -9951,10 +10782,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:21">
       <c r="A105">
         <v>7</v>
       </c>
+      <c r="B105">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C105">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -9968,10 +10803,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:21">
       <c r="A106">
         <v>8</v>
       </c>
+      <c r="B106">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C106">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -9985,10 +10824,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:21">
       <c r="A107">
         <v>9</v>
       </c>
+      <c r="B107">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C107">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -10002,10 +10845,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:21">
       <c r="A108">
         <v>10</v>
       </c>
+      <c r="B108">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C108">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -10019,10 +10866,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:21">
       <c r="A109">
         <v>11</v>
       </c>
+      <c r="B109">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C109">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -10036,10 +10887,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:21">
       <c r="A110">
         <v>12</v>
       </c>
+      <c r="B110">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C110">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -10053,10 +10908,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:21">
       <c r="A111">
         <v>13</v>
       </c>
+      <c r="B111">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C111">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -10070,10 +10929,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:21">
       <c r="A112">
         <v>14</v>
       </c>
+      <c r="B112">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C112">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -10087,10 +10950,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:21">
       <c r="A113">
         <v>15</v>
       </c>
+      <c r="B113">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C113">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -10104,10 +10971,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:21">
       <c r="A114">
         <v>16</v>
       </c>
+      <c r="B114">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C114">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -10121,10 +10992,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:21">
       <c r="A115">
         <v>17</v>
       </c>
+      <c r="B115">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C115">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -10138,10 +11013,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:21">
       <c r="A116">
         <v>18</v>
       </c>
+      <c r="B116">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C116">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -10155,10 +11034,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
+    <row r="117" spans="1:21">
       <c r="A117">
         <v>19</v>
       </c>
+      <c r="B117">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C117">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -10172,10 +11055,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:21">
       <c r="A118">
         <v>20</v>
       </c>
+      <c r="B118">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C118">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -10189,10 +11076,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:21">
       <c r="A119">
         <v>21</v>
       </c>
+      <c r="B119">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C119">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -10206,10 +11097,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:21">
       <c r="A120">
         <v>22</v>
       </c>
+      <c r="B120">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C120">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -10223,10 +11118,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:21">
       <c r="A121">
         <v>23</v>
       </c>
+      <c r="B121">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C121">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -10240,10 +11139,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:21">
       <c r="A122">
         <v>24</v>
       </c>
+      <c r="B122">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C122">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -10257,10 +11160,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:21">
       <c r="A123">
         <v>25</v>
       </c>
+      <c r="B123">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C123">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -10274,10 +11181,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:21">
       <c r="A124">
         <v>26</v>
       </c>
+      <c r="B124">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C124">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -10291,10 +11202,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:21">
       <c r="A125">
         <v>27</v>
       </c>
+      <c r="B125">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="C125">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -10308,10 +11223,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:21">
       <c r="A126">
         <v>28</v>
       </c>
+      <c r="B126">
+        <f>SUM(B99:B125)</f>
+        <v>0</v>
+      </c>
       <c r="C126">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -10327,82 +11246,82 @@
     </row>
     <row r="127" spans="1:25">
       <c r="A127" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B127">
-        <f t="shared" ref="B127:T127" si="12">SUM(B99:B126)</f>
+        <f t="shared" ref="B127:T127" si="13">SUM(B99:B126)</f>
         <v>0</v>
       </c>
       <c r="C127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U127">
@@ -10416,82 +11335,82 @@
     </row>
     <row r="128" spans="1:25">
       <c r="A128" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B128" t="e">
-        <f t="shared" ref="B128:T128" si="13">B127/COUNTIFS($B$100:$B$127,"&gt;0")</f>
+        <f>B127/COUNTIFS($B$100:$B$127,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C128" t="e">
-        <f t="shared" si="13"/>
+        <f>C127/COUNTIFS($B$100:$B$127,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D128" t="e">
-        <f t="shared" si="13"/>
+        <f>D127/COUNTIFS($B$100:$B$127,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E128" t="e">
-        <f t="shared" si="13"/>
+        <f>E127/COUNTIFS($B$100:$B$127,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F128" t="e">
-        <f t="shared" si="13"/>
+        <f>F127/COUNTIFS($B$100:$B$127,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G128" t="e">
-        <f t="shared" si="13"/>
+        <f>G127/COUNTIFS($B$100:$B$127,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H128" t="e">
-        <f t="shared" si="13"/>
+        <f>H127/COUNTIFS($B$100:$B$127,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I128" t="e">
-        <f t="shared" si="13"/>
+        <f>I127/COUNTIFS($B$100:$B$127,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J128" t="e">
-        <f t="shared" si="13"/>
+        <f>J127/COUNTIFS($B$100:$B$127,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K128" t="e">
-        <f t="shared" si="13"/>
+        <f>K127/COUNTIFS($B$100:$B$127,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L128" t="e">
-        <f t="shared" si="13"/>
+        <f>L127/COUNTIFS($B$100:$B$127,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M128" t="e">
-        <f t="shared" si="13"/>
+        <f>M127/COUNTIFS($B$100:$B$127,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N128" t="e">
-        <f t="shared" si="13"/>
+        <f>N127/COUNTIFS($B$100:$B$127,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O128" t="e">
-        <f t="shared" si="13"/>
+        <f>O127/COUNTIFS($B$100:$B$127,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P128" t="e">
-        <f t="shared" si="13"/>
+        <f>P127/COUNTIFS($B$100:$B$127,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q128" t="e">
-        <f t="shared" si="13"/>
+        <f>Q127/COUNTIFS($B$100:$B$127,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R128" t="e">
-        <f t="shared" si="13"/>
+        <f>R127/COUNTIFS($B$100:$B$127,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S128" t="e">
-        <f t="shared" si="13"/>
+        <f>S127/COUNTIFS($B$100:$B$127,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T128" t="e">
-        <f t="shared" si="13"/>
+        <f>T127/COUNTIFS($B$100:$B$127,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y128" t="e">
@@ -10499,7 +11418,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" customFormat="1" spans="1:18">
       <c r="A129" s="1" t="s">
         <v>32</v>
       </c>
@@ -10566,19 +11485,21 @@
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" customFormat="1" spans="1:1">
       <c r="A130" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="131" customFormat="1" spans="1:1">
       <c r="A131" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Z89" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <autoFilter ref="A2:Z89">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>